--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:54:16+00:00</t>
+    <t>2024-05-28T07:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T07:55:12+00:00</t>
+    <t>2024-05-28T12:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:10:40+00:00</t>
+    <t>2024-05-28T12:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:12:57+00:00</t>
+    <t>2024-05-28T13:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:04+00:00</t>
+    <t>2024-05-28T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:46:56+00:00</t>
+    <t>2024-05-28T14:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
